--- a/reviewer tool/reflash/Report_review.xlsx
+++ b/reviewer tool/reflash/Report_review.xlsx
@@ -973,7 +973,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>f195</t>
+          <t>F195</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>f180</t>
+          <t>F180</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>f181</t>
+          <t>F181</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>f187</t>
+          <t>F187</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>f189</t>
+          <t>F189</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>f17f</t>
+          <t>F17F</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>f1b2</t>
+          <t>F1B2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>f1de</t>
+          <t>F1DE</t>
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D12" s="4" t="inlineStr">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>f1e0</t>
+          <t>F1E0</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
@@ -1270,12 +1270,12 @@
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>f1dd</t>
+          <t>F1DD</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="D14" s="4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="D15" s="4" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="D16" s="4" t="inlineStr">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>f195</t>
+          <t>F195</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>f180</t>
+          <t>F180</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>f181</t>
+          <t>F181</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>f187</t>
+          <t>F187</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>f189</t>
+          <t>F189</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1611,7 +1611,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>f17f</t>
+          <t>F17F</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>f1b2</t>
+          <t>F1B2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1663,24 +1663,24 @@
           <t>ID_10</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>0200</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="D10" s="4" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E10" s="4" t="inlineStr">
-        <is>
-          <t>FAIL</t>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -1690,24 +1690,24 @@
           <t>ID_11</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>0201</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
-        <is>
-          <t>0001</t>
-        </is>
-      </c>
-      <c r="D11" s="4" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E11" s="4" t="inlineStr">
-        <is>
-          <t>FAIL</t>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -1717,24 +1717,24 @@
           <t>ID_12</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
-        <is>
-          <t>f1de</t>
-        </is>
-      </c>
-      <c r="C12" s="4" t="inlineStr">
-        <is>
-          <t>303430303034303030323230444d3030354100000000000000000000</t>
-        </is>
-      </c>
-      <c r="D12" s="4" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>F1DE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>303430303034303030323230444d30303541</t>
         </is>
       </c>
-      <c r="E12" s="4" t="inlineStr">
-        <is>
-          <t>FAIL</t>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>303430303034303030323230444d30303541</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -1744,24 +1744,24 @@
           <t>ID_13</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
-        <is>
-          <t>f1e0</t>
-        </is>
-      </c>
-      <c r="C13" s="4" t="inlineStr">
-        <is>
-          <t>070203</t>
-        </is>
-      </c>
-      <c r="D13" s="4" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>F1E0</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E13" s="4" t="inlineStr">
-        <is>
-          <t>FAIL</t>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -1771,20 +1771,14 @@
           <t>ID_14</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
-        <is>
-          <t>f1dd</t>
-        </is>
-      </c>
-      <c r="C14" s="4" t="inlineStr">
-        <is>
-          <t>30323330303235613936613838373163323032322d30382d313600006a656e6b696e7300000000000000000067616361383831726d656d6f6e6f5f6d63315f7348432d55543431333935430041504438314843003000000030323561393661383837316364306233656432613833623432303834383334316335393463653931</t>
-        </is>
-      </c>
-      <c r="D14" s="4" t="inlineStr"/>
-      <c r="E14" s="4" t="inlineStr">
-        <is>
-          <t>FAIL</t>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>F1DD</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -1794,20 +1788,14 @@
           <t>ID_15</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>4255</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
-        <is>
-          <t>104d14be5446d6ff00033968686868000000000000000000000000000000</t>
-        </is>
-      </c>
-      <c r="D15" s="4" t="inlineStr"/>
-      <c r="E15" s="4" t="inlineStr">
-        <is>
-          <t>FAIL</t>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -1817,20 +1805,14 @@
           <t>ID_16</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>4259</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
-        <is>
-          <t>000000090200</t>
-        </is>
-      </c>
-      <c r="D16" s="4" t="inlineStr"/>
-      <c r="E16" s="4" t="inlineStr">
-        <is>
-          <t>FAIL</t>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -1957,7 +1939,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>f195</t>
+          <t>F195</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1984,7 +1966,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>f180</t>
+          <t>F180</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2011,7 +1993,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>f181</t>
+          <t>F181</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2038,7 +2020,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>f187</t>
+          <t>F187</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2065,7 +2047,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>f189</t>
+          <t>F189</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2092,7 +2074,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>f17f</t>
+          <t>F17F</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2119,7 +2101,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>f1b2</t>
+          <t>F1B2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2144,20 +2126,14 @@
           <t>ID_10</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>0200</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr"/>
-      <c r="D10" s="4" t="inlineStr">
-        <is>
-          <t>8540009CMV01C.000</t>
-        </is>
-      </c>
-      <c r="E10" s="4" t="inlineStr">
-        <is>
-          <t>FAIL</t>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -2167,20 +2143,14 @@
           <t>ID_11</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>0201</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr"/>
-      <c r="D11" s="4" t="inlineStr">
-        <is>
-          <t>8540009CMV01C.000</t>
-        </is>
-      </c>
-      <c r="E11" s="4" t="inlineStr">
-        <is>
-          <t>FAIL</t>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -2190,24 +2160,24 @@
           <t>ID_12</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
-        <is>
-          <t>f1de</t>
-        </is>
-      </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>F1DE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>040004000220DM005A</t>
         </is>
       </c>
-      <c r="D12" s="4" t="inlineStr">
-        <is>
-          <t>8540009CMV01C.000</t>
-        </is>
-      </c>
-      <c r="E12" s="4" t="inlineStr">
-        <is>
-          <t>FAIL</t>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>040004000220DM005A</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -2217,20 +2187,14 @@
           <t>ID_13</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
-        <is>
-          <t>f1e0</t>
-        </is>
-      </c>
-      <c r="C13" s="4" t="inlineStr"/>
-      <c r="D13" s="4" t="inlineStr">
-        <is>
-          <t>8540009CMV01C.000</t>
-        </is>
-      </c>
-      <c r="E13" s="4" t="inlineStr">
-        <is>
-          <t>FAIL</t>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>F1E0</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>PASS</t>
         </is>
       </c>
     </row>
@@ -2242,7 +2206,7 @@
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>f1dd</t>
+          <t>F1DD</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
@@ -2250,11 +2214,7 @@
           <t>0230025a96a8871c2022-08-16jenkinsgaca881rmemono_mc1_sHC-UT41395CAPD81HC0025a96a8871cd0b3ed2a83b420848341c594ce91</t>
         </is>
       </c>
-      <c r="D14" s="4" t="inlineStr">
-        <is>
-          <t>8540009CMV01C.000</t>
-        </is>
-      </c>
+      <c r="D14" s="4" t="inlineStr"/>
       <c r="E14" s="4" t="inlineStr">
         <is>
           <t>FAIL</t>
@@ -2277,11 +2237,7 @@
           <t>0230025a96a8871c2022-08-16jenkinsgaca881rmemono_mc1_sHC-UT41395CAPD81HC0025a96a8871cd0b3ed2a83b420848341c594ce91</t>
         </is>
       </c>
-      <c r="D15" s="4" t="inlineStr">
-        <is>
-          <t>8540009CMV01C.000</t>
-        </is>
-      </c>
+      <c r="D15" s="4" t="inlineStr"/>
       <c r="E15" s="4" t="inlineStr">
         <is>
           <t>FAIL</t>
@@ -2304,11 +2260,7 @@
           <t xml:space="preserve">	</t>
         </is>
       </c>
-      <c r="D16" s="4" t="inlineStr">
-        <is>
-          <t>8540009CMV01C.000</t>
-        </is>
-      </c>
+      <c r="D16" s="4" t="inlineStr"/>
       <c r="E16" s="4" t="inlineStr">
         <is>
           <t>FAIL</t>
